--- a/TestBench/TestData/UIData2.xlsx
+++ b/TestBench/TestData/UIData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdoppalapudi\Desktop\KT\Automation\TestNGrepo\TestBench\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C7B2C4-6965-49CE-9111-B8EAD8AE3C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CA9FD1-1AC4-4691-BD3A-F53BD887AF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>TestCase</t>
   </si>
@@ -79,13 +79,43 @@
   </si>
   <si>
     <t>Address1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>1234567892</t>
+  </si>
+  <si>
+    <t>1234567893</t>
+  </si>
+  <si>
+    <t>1234567894</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +142,12 @@
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -156,12 +192,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,7 +484,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,106 +517,107 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>1234567890</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>1234567890</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>1234567890</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>1234567890</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>1234567890</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D0EEA16E-FB97-48C8-BABB-31434F6C0F57}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{86EF2A69-F22B-4EC8-A06A-290E862EDBEA}"/>

--- a/TestBench/TestData/UIData2.xlsx
+++ b/TestBench/TestData/UIData2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdoppalapudi\Desktop\KT\Automation\TestNGrepo\TestBench\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CA9FD1-1AC4-4691-BD3A-F53BD887AF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C8F7A8-7329-4372-BDF1-98F4D6C9C118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
